--- a/Supplements/SData 9.xlsx
+++ b/Supplements/SData 9.xlsx
@@ -17,10 +17,6 @@
     <sheet name="DeSeq_cor_Col x Tsu" sheetId="3" r:id="rId8"/>
     <sheet name="DeSeq_cor_Tsu x Col" sheetId="4" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="SNP.Tsu_x_Col.three_reps_per_gene.final" localSheetId="8">'DeSeq_cor_Tsu x Col'!#REF!</definedName>
   </definedNames>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="320">
   <si>
     <t>FOR EACH GENE, USE THE SNP WITH A MAXIMUM INDIVIDUAL READ COUNT (e.g. Col R1 Fwd BR1)</t>
   </si>
@@ -942,6 +938,54 @@
   <si>
     <t>"DeSeq_cor" tabs show DeSeq comparison of the two methods as well as correlation within each cross between SNP and IRP. For each gene, the SNP with a maximum individual read count was used.</t>
   </si>
+  <si>
+    <t>SNP in ecotype</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MEG/PEG</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>pos control</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>IS BIPARENTAL IN OUR EXPERIMENT, SHOULD BE A MEG (only Col-Tsu)</t>
+  </si>
+  <si>
+    <t>pos control (only Col-Tsu)</t>
+  </si>
+  <si>
+    <t>Good MEG, not in the "medium" dataset</t>
+  </si>
+  <si>
+    <t>PEG in Gehring2011 and Pignatta 2014</t>
+  </si>
+  <si>
+    <t>MEG in Gehring2011 and Pignatta 2014</t>
+  </si>
+  <si>
+    <t>Novel MEG</t>
+  </si>
+  <si>
+    <t>Novel MEG (embryo spesific?)</t>
+  </si>
+  <si>
+    <t>negative control</t>
+  </si>
 </sst>
 </file>
 
@@ -952,7 +996,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1006,6 +1050,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1021,7 +1072,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1029,11 +1080,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1204,6 +1270,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,1470 +1294,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ALIGNS"/>
-      <sheetName val="SNPS"/>
-      <sheetName val="SNP read count CxL"/>
-      <sheetName val="Log"/>
-      <sheetName val="Col x Ler"/>
-      <sheetName val="Ler x Col"/>
-      <sheetName val="correlation"/>
-      <sheetName val="correlation (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="4">
-          <cell r="S4" t="str">
-            <v>FC</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>-2.2654117307074202</v>
-          </cell>
-          <cell r="S6">
-            <v>-4.8079161334141398</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="M7">
-            <v>0.11253377963715901</v>
-          </cell>
-          <cell r="S7">
-            <v>1.08112533128779</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="M8">
-            <v>7.1621530405458698</v>
-          </cell>
-          <cell r="S8">
-            <v>143.22634152303999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="M9">
-            <v>7.8480329132782396</v>
-          </cell>
-          <cell r="S9">
-            <v>230.40575038545001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="M10">
-            <v>6.12900194343956</v>
-          </cell>
-          <cell r="S10">
-            <v>69.986363556859004</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="M11">
-            <v>3.02528972935339</v>
-          </cell>
-          <cell r="S11">
-            <v>8.1414723845357901</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="M12">
-            <v>5.7591461734729998</v>
-          </cell>
-          <cell r="S12">
-            <v>54.159637344304599</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="M13">
-            <v>2.9045276272806002</v>
-          </cell>
-          <cell r="S13">
-            <v>7.4877259182532203</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="M14">
-            <v>7.7978086589680302</v>
-          </cell>
-          <cell r="S14">
-            <v>222.522692798132</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="M15">
-            <v>-0.31060260389986499</v>
-          </cell>
-          <cell r="S15">
-            <v>-1.2402256255675099</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="M16">
-            <v>7.8503018007771104</v>
-          </cell>
-          <cell r="S16">
-            <v>230.768388362601</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="M17">
-            <v>0.32004878393393998</v>
-          </cell>
-          <cell r="S17">
-            <v>1.24837276122157</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="M20">
-            <v>-2.0628834231585498</v>
-          </cell>
-          <cell r="S20">
-            <v>-4.17820541830742</v>
-          </cell>
-          <cell r="U20">
-            <v>-4.8079161334141398</v>
-          </cell>
-          <cell r="V20">
-            <v>-4.17820541830742</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="M21">
-            <v>6.5976106242056104E-2</v>
-          </cell>
-          <cell r="S21">
-            <v>1.0467929449604101</v>
-          </cell>
-          <cell r="U21">
-            <v>1.08112533128779</v>
-          </cell>
-          <cell r="V21">
-            <v>1.0467929449604101</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="M22">
-            <v>6.8541709596185996</v>
-          </cell>
-          <cell r="S22">
-            <v>115.694057978286</v>
-          </cell>
-          <cell r="U22">
-            <v>143.22634152303999</v>
-          </cell>
-          <cell r="V22">
-            <v>115.694057978286</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="M23">
-            <v>7.5257194231518296</v>
-          </cell>
-          <cell r="S23">
-            <v>184.27536721760799</v>
-          </cell>
-          <cell r="U23">
-            <v>230.40575038545001</v>
-          </cell>
-          <cell r="V23">
-            <v>184.27536721760799</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="M24">
-            <v>4.7714486632945299</v>
-          </cell>
-          <cell r="S24">
-            <v>27.311727484873899</v>
-          </cell>
-          <cell r="U24">
-            <v>69.986363556859004</v>
-          </cell>
-          <cell r="V24">
-            <v>27.311727484873899</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="M25">
-            <v>3.0061662054473399</v>
-          </cell>
-          <cell r="S25">
-            <v>8.0342658788905705</v>
-          </cell>
-          <cell r="U25">
-            <v>8.1414723845357901</v>
-          </cell>
-          <cell r="V25">
-            <v>8.0342658788905705</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="M26">
-            <v>4.5482091381168104</v>
-          </cell>
-          <cell r="S26">
-            <v>23.3963105395522</v>
-          </cell>
-          <cell r="U26">
-            <v>54.159637344304599</v>
-          </cell>
-          <cell r="V26">
-            <v>23.3963105395522</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="M27">
-            <v>2.7437468777640501</v>
-          </cell>
-          <cell r="S27">
-            <v>6.6980766129678697</v>
-          </cell>
-          <cell r="U27">
-            <v>7.4877259182532203</v>
-          </cell>
-          <cell r="V27">
-            <v>6.6980766129678697</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="M28">
-            <v>7.7543356616473602</v>
-          </cell>
-          <cell r="S28">
-            <v>215.91739435287599</v>
-          </cell>
-          <cell r="U28">
-            <v>222.522692798132</v>
-          </cell>
-          <cell r="V28">
-            <v>215.91739435287599</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="M29">
-            <v>-0.448081234499561</v>
-          </cell>
-          <cell r="S29">
-            <v>-1.3642246487474901</v>
-          </cell>
-          <cell r="U29">
-            <v>-1.2402256255675099</v>
-          </cell>
-          <cell r="V29">
-            <v>-1.3642246487474901</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="M30">
-            <v>4.8849676189665603</v>
-          </cell>
-          <cell r="S30">
-            <v>29.5475707459311</v>
-          </cell>
-          <cell r="U30">
-            <v>230.768388362601</v>
-          </cell>
-          <cell r="V30">
-            <v>29.5475707459311</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="M31">
-            <v>0.18837291778204299</v>
-          </cell>
-          <cell r="S31">
-            <v>1.1394778792731299</v>
-          </cell>
-          <cell r="U31">
-            <v>1.24837276122157</v>
-          </cell>
-          <cell r="V31">
-            <v>1.1394778792731299</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="4">
-          <cell r="T4" t="str">
-            <v>FC</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>-5.1505971152247296</v>
-          </cell>
-          <cell r="T6">
-            <v>-35.520921773515703</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>-0.14997898205752799</v>
-          </cell>
-          <cell r="T7">
-            <v>-1.10955330739215</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>5.8600896535733797</v>
-          </cell>
-          <cell r="T8">
-            <v>58.084835401135699</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>9.0952874192285496</v>
-          </cell>
-          <cell r="T9">
-            <v>546.95844522195796</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>8.3131231841932003</v>
-          </cell>
-          <cell r="T10">
-            <v>318.052955857916</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>2.4881070876825699</v>
-          </cell>
-          <cell r="T11">
-            <v>5.61041343421891</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>4.3373213907164203</v>
-          </cell>
-          <cell r="T12">
-            <v>20.214538902416699</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>1.8117253396644799</v>
-          </cell>
-          <cell r="T13">
-            <v>3.5106187750807201</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>7.1021559857887597</v>
-          </cell>
-          <cell r="T14">
-            <v>137.39217084929601</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>-0.16945082795811001</v>
-          </cell>
-          <cell r="T15">
-            <v>-1.1246303047421899</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>5.4807715201611504</v>
-          </cell>
-          <cell r="T16">
-            <v>44.655671766163799</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>-0.44737528726727199</v>
-          </cell>
-          <cell r="T17">
-            <v>-1.3635572623638701</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20">
-            <v>-3.7049218678214602</v>
-          </cell>
-          <cell r="T20">
-            <v>-13.0404510663151</v>
-          </cell>
-          <cell r="V20">
-            <v>-35.520921773515703</v>
-          </cell>
-          <cell r="W20">
-            <v>-13.0404510663151</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="N21">
-            <v>-3.7143791854333599E-2</v>
-          </cell>
-          <cell r="T21">
-            <v>-1.0260804085653601</v>
-          </cell>
-          <cell r="V21">
-            <v>-1.10955330739215</v>
-          </cell>
-          <cell r="W21">
-            <v>-1.0260804085653601</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="N22">
-            <v>6.1344734198182298</v>
-          </cell>
-          <cell r="T22">
-            <v>70.2522934858913</v>
-          </cell>
-          <cell r="V22">
-            <v>58.084835401135699</v>
-          </cell>
-          <cell r="W22">
-            <v>70.2522934858913</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="N23">
-            <v>8.5321070345674599</v>
-          </cell>
-          <cell r="T23">
-            <v>370.186130756311</v>
-          </cell>
-          <cell r="V23">
-            <v>546.95844522195796</v>
-          </cell>
-          <cell r="W23">
-            <v>370.186130756311</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="N24">
-            <v>5.7729275582146604</v>
-          </cell>
-          <cell r="T24">
-            <v>54.6794777372765</v>
-          </cell>
-          <cell r="V24">
-            <v>318.052955857916</v>
-          </cell>
-          <cell r="W24">
-            <v>54.6794777372765</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="N25">
-            <v>2.49361725724571</v>
-          </cell>
-          <cell r="T25">
-            <v>5.6318825875392502</v>
-          </cell>
-          <cell r="V25">
-            <v>5.61041343421891</v>
-          </cell>
-          <cell r="W25">
-            <v>5.6318825875392502</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="N26">
-            <v>4.6459300159341597</v>
-          </cell>
-          <cell r="T26">
-            <v>25.035962510148501</v>
-          </cell>
-          <cell r="V26">
-            <v>20.214538902416699</v>
-          </cell>
-          <cell r="W26">
-            <v>25.035962510148501</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="N27">
-            <v>1.96562077990818</v>
-          </cell>
-          <cell r="T27">
-            <v>3.9058073186044799</v>
-          </cell>
-          <cell r="V27">
-            <v>3.5106187750807201</v>
-          </cell>
-          <cell r="W27">
-            <v>3.9058073186044799</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="N28">
-            <v>6.5591211084126098</v>
-          </cell>
-          <cell r="T28">
-            <v>94.295767308231106</v>
-          </cell>
-          <cell r="V28">
-            <v>137.39217084929601</v>
-          </cell>
-          <cell r="W28">
-            <v>94.295767308231106</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="N29">
-            <v>-0.13033852576864799</v>
-          </cell>
-          <cell r="T29">
-            <v>-1.0945505054165401</v>
-          </cell>
-          <cell r="V29">
-            <v>-1.1246303047421899</v>
-          </cell>
-          <cell r="W29">
-            <v>-1.0945505054165401</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="N30">
-            <v>5.2006207449048603</v>
-          </cell>
-          <cell r="T30">
-            <v>36.774166688120403</v>
-          </cell>
-          <cell r="V30">
-            <v>44.655671766163799</v>
-          </cell>
-          <cell r="W30">
-            <v>36.774166688120403</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="N31">
-            <v>-0.465533086736725</v>
-          </cell>
-          <cell r="T31">
-            <v>-1.3808274853487199</v>
-          </cell>
-          <cell r="V31">
-            <v>-1.3635572623638701</v>
-          </cell>
-          <cell r="W31">
-            <v>-1.3808274853487199</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37" t="str">
-            <v>SNP mat</v>
-          </cell>
-          <cell r="I37" t="str">
-            <v>IR mat</v>
-          </cell>
-          <cell r="J37" t="str">
-            <v>SNP pat</v>
-          </cell>
-          <cell r="K37" t="str">
-            <v>IR pat</v>
-          </cell>
-          <cell r="N37" t="str">
-            <v>SNP mat</v>
-          </cell>
-          <cell r="O37" t="str">
-            <v>IR mat</v>
-          </cell>
-          <cell r="P37" t="str">
-            <v>SNP pat</v>
-          </cell>
-          <cell r="Q37" t="str">
-            <v>IR pat</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="G38" t="str">
-            <v>AT1G65300</v>
-          </cell>
-          <cell r="H38">
-            <v>3045</v>
-          </cell>
-          <cell r="I38">
-            <v>2920</v>
-          </cell>
-          <cell r="J38">
-            <v>3425.6666666666665</v>
-          </cell>
-          <cell r="K38">
-            <v>3027</v>
-          </cell>
-          <cell r="M38" t="str">
-            <v>AT1G65300</v>
-          </cell>
-          <cell r="N38">
-            <v>11.572226512793694</v>
-          </cell>
-          <cell r="O38">
-            <v>11.511752653767381</v>
-          </cell>
-          <cell r="P38">
-            <v>11.742169061961691</v>
-          </cell>
-          <cell r="Q38">
-            <v>11.563672959827516</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="G39" t="str">
-            <v>AT5G26630</v>
-          </cell>
-          <cell r="H39">
-            <v>1377.3333333333333</v>
-          </cell>
-          <cell r="I39">
-            <v>531.66666666666663</v>
-          </cell>
-          <cell r="J39">
-            <v>1553.6666666666667</v>
-          </cell>
-          <cell r="K39">
-            <v>588.33333333333337</v>
-          </cell>
-          <cell r="M39" t="str">
-            <v>AT5G26630</v>
-          </cell>
-          <cell r="N39">
-            <v>10.427662038143904</v>
-          </cell>
-          <cell r="O39">
-            <v>9.0543782079310748</v>
-          </cell>
-          <cell r="P39">
-            <v>10.601461296817789</v>
-          </cell>
-          <cell r="Q39">
-            <v>9.2004899674373881</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="G40" t="str">
-            <v>AT5G60440</v>
-          </cell>
-          <cell r="H40">
-            <v>1416</v>
-          </cell>
-          <cell r="I40">
-            <v>1032</v>
-          </cell>
-          <cell r="J40">
-            <v>1940.6666666666667</v>
-          </cell>
-          <cell r="K40">
-            <v>1425.3333333333333</v>
-          </cell>
-          <cell r="M40" t="str">
-            <v>AT5G60440</v>
-          </cell>
-          <cell r="N40">
-            <v>10.467605550082999</v>
-          </cell>
-          <cell r="O40">
-            <v>10.011227255423254</v>
-          </cell>
-          <cell r="P40">
-            <v>10.922336623401609</v>
-          </cell>
-          <cell r="Q40">
-            <v>10.477083636999334</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="G41" t="str">
-            <v>AT2G17690</v>
-          </cell>
-          <cell r="H41">
-            <v>1831.3333333333333</v>
-          </cell>
-          <cell r="I41">
-            <v>3044.3333333333335</v>
-          </cell>
-          <cell r="J41">
-            <v>35.666666666666664</v>
-          </cell>
-          <cell r="K41">
-            <v>42</v>
-          </cell>
-          <cell r="M41" t="str">
-            <v>AT2G17690</v>
-          </cell>
-          <cell r="N41">
-            <v>10.8386786943547</v>
-          </cell>
-          <cell r="O41">
-            <v>11.57191061722841</v>
-          </cell>
-          <cell r="P41">
-            <v>5.1565044856799904</v>
-          </cell>
-          <cell r="Q41">
-            <v>5.3923174227787607</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="G42" t="str">
-            <v>AT2G32990</v>
-          </cell>
-          <cell r="H42">
-            <v>1168.3333333333333</v>
-          </cell>
-          <cell r="I42">
-            <v>1335.6666666666667</v>
-          </cell>
-          <cell r="J42">
-            <v>2</v>
-          </cell>
-          <cell r="K42">
-            <v>4</v>
-          </cell>
-          <cell r="M42" t="str">
-            <v>AT2G32990</v>
-          </cell>
-          <cell r="N42">
-            <v>10.190236228176829</v>
-          </cell>
-          <cell r="O42">
-            <v>10.383344293709643</v>
-          </cell>
-          <cell r="P42">
-            <v>1</v>
-          </cell>
-          <cell r="Q42">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="G43" t="str">
-            <v>AT2G35670</v>
-          </cell>
-          <cell r="H43">
-            <v>706.66666666666663</v>
-          </cell>
-          <cell r="I43">
-            <v>1100.3333333333333</v>
-          </cell>
-          <cell r="J43">
-            <v>1.6666666666666667</v>
-          </cell>
-          <cell r="K43">
-            <v>19.333333333333332</v>
-          </cell>
-          <cell r="M43" t="str">
-            <v>AT2G35670</v>
-          </cell>
-          <cell r="N43">
-            <v>9.4648860487294062</v>
-          </cell>
-          <cell r="O43">
-            <v>10.10372492250138</v>
-          </cell>
-          <cell r="P43">
-            <v>0.73696559416620622</v>
-          </cell>
-          <cell r="Q43">
-            <v>4.2730184944064158</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="G44" t="str">
-            <v>AT3G19350</v>
-          </cell>
-          <cell r="H44">
-            <v>5169</v>
-          </cell>
-          <cell r="I44">
-            <v>1950.6666666666667</v>
-          </cell>
-          <cell r="J44">
-            <v>932</v>
-          </cell>
-          <cell r="K44">
-            <v>357.66666666666669</v>
-          </cell>
-          <cell r="M44" t="str">
-            <v>AT3G19350</v>
-          </cell>
-          <cell r="N44">
-            <v>12.335669486946104</v>
-          </cell>
-          <cell r="O44">
-            <v>10.929751553417331</v>
-          </cell>
-          <cell r="P44">
-            <v>9.8641861446542798</v>
-          </cell>
-          <cell r="Q44">
-            <v>8.4824718600353659</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="G45" t="str">
-            <v>AT4G10640</v>
-          </cell>
-          <cell r="H45">
-            <v>2068</v>
-          </cell>
-          <cell r="I45">
-            <v>5144.666666666667</v>
-          </cell>
-          <cell r="J45">
-            <v>104</v>
-          </cell>
-          <cell r="K45">
-            <v>207</v>
-          </cell>
-          <cell r="M45" t="str">
-            <v>AT4G10640</v>
-          </cell>
-          <cell r="N45">
-            <v>11.014020470314936</v>
-          </cell>
-          <cell r="O45">
-            <v>12.328861889686907</v>
-          </cell>
-          <cell r="P45">
-            <v>6.7004397181410917</v>
-          </cell>
-          <cell r="Q45">
-            <v>7.6934869574993252</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="G46" t="str">
-            <v>AT4G13460</v>
-          </cell>
-          <cell r="H46">
-            <v>5865.333333333333</v>
-          </cell>
-          <cell r="I46">
-            <v>15167.333333333334</v>
-          </cell>
-          <cell r="J46">
-            <v>1666</v>
-          </cell>
-          <cell r="K46">
-            <v>3890</v>
-          </cell>
-          <cell r="M46" t="str">
-            <v>AT4G13460</v>
-          </cell>
-          <cell r="N46">
-            <v>12.517997385188968</v>
-          </cell>
-          <cell r="O46">
-            <v>13.88867983791256</v>
-          </cell>
-          <cell r="P46">
-            <v>10.702172685365547</v>
-          </cell>
-          <cell r="Q46">
-            <v>11.925554439873554</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="G47" t="str">
-            <v>AT4G25530</v>
-          </cell>
-          <cell r="H47">
-            <v>4460</v>
-          </cell>
-          <cell r="I47">
-            <v>4733.333333333333</v>
-          </cell>
-          <cell r="J47">
-            <v>38.333333333333336</v>
-          </cell>
-          <cell r="K47">
-            <v>61.333333333333336</v>
-          </cell>
-          <cell r="M47" t="str">
-            <v>AT4G25530</v>
-          </cell>
-          <cell r="N47">
-            <v>12.122827994807666</v>
-          </cell>
-          <cell r="O47">
-            <v>12.208640808558251</v>
-          </cell>
-          <cell r="P47">
-            <v>5.2605275502232196</v>
-          </cell>
-          <cell r="Q47">
-            <v>5.938599455335857</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="G48" t="str">
-            <v>AT5G26650</v>
-          </cell>
-          <cell r="H48">
-            <v>2843.6666666666665</v>
-          </cell>
-          <cell r="I48">
-            <v>3758</v>
-          </cell>
-          <cell r="J48">
-            <v>74.333333333333329</v>
-          </cell>
-          <cell r="K48">
-            <v>109.66666666666667</v>
-          </cell>
-          <cell r="M48" t="str">
-            <v>AT5G26650</v>
-          </cell>
-          <cell r="N48">
-            <v>11.473536647463577</v>
-          </cell>
-          <cell r="O48">
-            <v>11.875749351420056</v>
-          </cell>
-          <cell r="P48">
-            <v>6.2159373991991487</v>
-          </cell>
-          <cell r="Q48">
-            <v>6.7769812730140853</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="G49" t="str">
-            <v>AT1G55560</v>
-          </cell>
-          <cell r="H49">
-            <v>97.333333333333329</v>
-          </cell>
-          <cell r="I49">
-            <v>312.66666666666669</v>
-          </cell>
-          <cell r="J49">
-            <v>1536.6666666666667</v>
-          </cell>
-          <cell r="K49">
-            <v>3314.3333333333335</v>
-          </cell>
-          <cell r="M49" t="str">
-            <v>AT1G55560</v>
-          </cell>
-          <cell r="N49">
-            <v>6.6048620581588606</v>
-          </cell>
-          <cell r="O49">
-            <v>8.2884816117942215</v>
-          </cell>
-          <cell r="P49">
-            <v>10.585588534595544</v>
-          </cell>
-          <cell r="Q49">
-            <v>11.69450299107281</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ALIGNS"/>
-      <sheetName val="SNPS"/>
-      <sheetName val="SNP read count CxT"/>
-      <sheetName val="SNP read count TxC"/>
-      <sheetName val="Log"/>
-      <sheetName val="Col x Tsu"/>
-      <sheetName val="Tsu x Col"/>
-      <sheetName val="correlation"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="4">
-          <cell r="R4" t="str">
-            <v>FC</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>3.9511961859631101E-2</v>
-          </cell>
-          <cell r="R6">
-            <v>1.02776609280563</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>1.47479035111812</v>
-          </cell>
-          <cell r="R7">
-            <v>2.7794325100653499</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>0.35255129987226402</v>
-          </cell>
-          <cell r="R8">
-            <v>1.2768165880326301</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9">
-            <v>-2.7937642915388299</v>
-          </cell>
-          <cell r="R9">
-            <v>-6.93436747406012</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10">
-            <v>7.0570383134139503</v>
-          </cell>
-          <cell r="R10">
-            <v>133.16197042831601</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="L11">
-            <v>6.2881875491008099</v>
-          </cell>
-          <cell r="R11">
-            <v>78.150735678170193</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="L12">
-            <v>5.2199859858105597</v>
-          </cell>
-          <cell r="R12">
-            <v>37.271112717523202</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="L13">
-            <v>3.1252038288659101</v>
-          </cell>
-          <cell r="R13">
-            <v>8.7252945135507094</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="L14">
-            <v>3.55675651955521</v>
-          </cell>
-          <cell r="R14">
-            <v>11.767667796034999</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="L15">
-            <v>2.7691938883191898</v>
-          </cell>
-          <cell r="R15">
-            <v>6.8172688932215699</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="L16">
-            <v>6.0488687321068504</v>
-          </cell>
-          <cell r="R16">
-            <v>66.205021082678201</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="L17">
-            <v>-0.37355006926540701</v>
-          </cell>
-          <cell r="R17">
-            <v>-1.2955368656472701</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="L18">
-            <v>6.1626309072766503</v>
-          </cell>
-          <cell r="R18">
-            <v>71.636895262599296</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="L19">
-            <v>0.35736576295654199</v>
-          </cell>
-          <cell r="R19">
-            <v>1.28108461041971</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="L22">
-            <v>0.175727707880801</v>
-          </cell>
-          <cell r="R22">
-            <v>1.1295340078796401</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="L23">
-            <v>-3.2246026181987899</v>
-          </cell>
-          <cell r="R23">
-            <v>-9.3476428810093495</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="L24">
-            <v>0.58405662155862503</v>
-          </cell>
-          <cell r="R24">
-            <v>1.4990584342579201</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="L25">
-            <v>-2.8161373328766302</v>
-          </cell>
-          <cell r="R25">
-            <v>-7.0427424886095</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>7.0119759024714501</v>
-          </cell>
-          <cell r="R26">
-            <v>129.066958385806</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="L27">
-            <v>6.0847953955074203</v>
-          </cell>
-          <cell r="R27">
-            <v>67.874388749417506</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="L28">
-            <v>3.7580391570275302</v>
-          </cell>
-          <cell r="R28">
-            <v>13.529523805753399</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="L29">
-            <v>3.1248933467690301</v>
-          </cell>
-          <cell r="R29">
-            <v>8.7234169467928009</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="L30">
-            <v>3.43126942179443</v>
-          </cell>
-          <cell r="R30">
-            <v>10.7873561933226</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="L31">
-            <v>2.5304130398923999</v>
-          </cell>
-          <cell r="R31">
-            <v>5.7773705917302598</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="L32">
-            <v>6.4044333417725197</v>
-          </cell>
-          <cell r="R32">
-            <v>84.708412167462598</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="L33">
-            <v>-5.0376549139755901E-2</v>
-          </cell>
-          <cell r="R33">
-            <v>-1.0355351673670099</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="L34">
-            <v>3.57620057655109</v>
-          </cell>
-          <cell r="R34">
-            <v>11.927341226293199</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="L35">
-            <v>0.25704953303677602</v>
-          </cell>
-          <cell r="R35">
-            <v>1.1950322340124699</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="4">
-          <cell r="R4" t="str">
-            <v>FC</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>-0.632118523140766</v>
-          </cell>
-          <cell r="R6">
-            <v>-1.54983918214683</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>-7.0990247062998604</v>
-          </cell>
-          <cell r="R7">
-            <v>-137.09429310216899</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>-0.32397699299087901</v>
-          </cell>
-          <cell r="R8">
-            <v>-1.25177649611022</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9">
-            <v>-3.6910451328649998</v>
-          </cell>
-          <cell r="R9">
-            <v>-12.915621234410301</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10">
-            <v>6.3972587476613896</v>
-          </cell>
-          <cell r="R10">
-            <v>84.288198762559205</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="L11">
-            <v>7.2001648805741203</v>
-          </cell>
-          <cell r="R11">
-            <v>147.05019433209699</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="L12">
-            <v>-2.4669537366941499</v>
-          </cell>
-          <cell r="R12">
-            <v>-5.5287515312481901</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="L13">
-            <v>2.4118825023766699</v>
-          </cell>
-          <cell r="R13">
-            <v>5.32168273208746</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="L14">
-            <v>3.9221753772341201</v>
-          </cell>
-          <cell r="R14">
-            <v>15.1597638723659</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="L15">
-            <v>2.33627645523323</v>
-          </cell>
-          <cell r="R15">
-            <v>5.0499757331227402</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="L16">
-            <v>6.8427956844493298</v>
-          </cell>
-          <cell r="R16">
-            <v>114.78542728753099</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="L17">
-            <v>-0.60934307160955803</v>
-          </cell>
-          <cell r="R17">
-            <v>-1.52556438799286</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="L18">
-            <v>6.2885229741925501</v>
-          </cell>
-          <cell r="R18">
-            <v>78.168907755087801</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="L19">
-            <v>-0.14066356864701601</v>
-          </cell>
-          <cell r="R19">
-            <v>-1.1024120545209899</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="L22">
-            <v>-0.53784737727508303</v>
-          </cell>
-          <cell r="R22">
-            <v>-1.4518046853453399</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="L23">
-            <v>-3.7931746887692301</v>
-          </cell>
-          <cell r="R23">
-            <v>-13.863068210778801</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="L24">
-            <v>-0.30179823157327801</v>
-          </cell>
-          <cell r="R24">
-            <v>-1.2326799166918101</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="L25">
-            <v>-3.4548688355272401</v>
-          </cell>
-          <cell r="R25">
-            <v>-10.9652654733229</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>6.33710024628272</v>
-          </cell>
-          <cell r="R26">
-            <v>80.845762165369393</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="L27">
-            <v>7.1394612723621602</v>
-          </cell>
-          <cell r="R27">
-            <v>140.99119641484299</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="L28">
-            <v>5.6292912298776399</v>
-          </cell>
-          <cell r="R28">
-            <v>49.4977564616552</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="L29">
-            <v>1.38639806254178</v>
-          </cell>
-          <cell r="R29">
-            <v>2.6142517219757799</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="L30">
-            <v>3.8316720276623202</v>
-          </cell>
-          <cell r="R30">
-            <v>14.237974601179999</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="L31">
-            <v>2.3821700593608002</v>
-          </cell>
-          <cell r="R31">
-            <v>5.2132030736297299</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="L32">
-            <v>6.9469091414961204</v>
-          </cell>
-          <cell r="R32">
-            <v>123.375245180975</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="L33">
-            <v>-0.78998104209478204</v>
-          </cell>
-          <cell r="R33">
-            <v>-1.7290517416570499</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="L34">
-            <v>4.9865219982249398</v>
-          </cell>
-          <cell r="R34">
-            <v>31.7024404546084</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="L35">
-            <v>-8.6416531888421105E-2</v>
-          </cell>
-          <cell r="R35">
-            <v>-1.06172970507735</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2969,32 +1583,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="65.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="67" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
